--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42975,6 +42975,41 @@
         <v>1143800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>797000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43010,6 +43010,41 @@
         <v>797000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1623000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43045,6 +43045,41 @@
         <v>1623000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1174000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43080,6 +43080,41 @@
         <v>1174000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1678700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43115,6 +43115,41 @@
         <v>1678700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>630400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43150,6 +43150,41 @@
         <v>630400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1095400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43185,6 +43185,41 @@
         <v>1095400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>600400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43220,6 +43220,41 @@
         <v>600400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1840200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43255,6 +43255,41 @@
         <v>1840200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1897000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43290,6 +43290,41 @@
         <v>1897000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1263700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,41 @@
         <v>1263700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>2248400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43360,6 +43360,41 @@
         <v>2248400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2851400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,76 @@
         <v>2851400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1639400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>4892000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43465,6 +43465,76 @@
         <v>4892000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2243500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1582400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43535,6 +43535,41 @@
         <v>1582400</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1683500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43570,6 +43570,41 @@
         <v>1683500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1064000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43605,6 +43605,41 @@
         <v>1064000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1713100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43640,6 +43640,41 @@
         <v>1713100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>3011600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43675,6 +43675,76 @@
         <v>3011600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>3147600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>3811300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43745,6 +43745,41 @@
         <v>3811300</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>2033200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43780,6 +43780,41 @@
         <v>2033200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>7213100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2534"/>
+  <dimension ref="A1:I2535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89070,6 +89070,41 @@
         <v>7213100</v>
       </c>
     </row>
+    <row r="2535">
+      <c r="A2535" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2535" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2535" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="F2535" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G2535" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="H2535" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="I2535" t="n">
+        <v>4451500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2535"/>
+  <dimension ref="A1:I2536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89105,6 +89105,41 @@
         <v>4451500</v>
       </c>
     </row>
+    <row r="2536">
+      <c r="A2536" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2536" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2536" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F2536" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="G2536" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="H2536" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="I2536" t="n">
+        <v>8681600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2536"/>
+  <dimension ref="A1:I2537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89140,6 +89140,41 @@
         <v>8681600</v>
       </c>
     </row>
+    <row r="2537">
+      <c r="A2537" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2537" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F2537" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="G2537" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="H2537" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="I2537" t="n">
+        <v>5454600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2537"/>
+  <dimension ref="A1:I2538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89175,6 +89175,41 @@
         <v>5454600</v>
       </c>
     </row>
+    <row r="2538">
+      <c r="A2538" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2538" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F2538" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G2538" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="H2538" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="I2538" t="n">
+        <v>2608400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2538"/>
+  <dimension ref="A1:I2539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89210,6 +89210,41 @@
         <v>2608400</v>
       </c>
     </row>
+    <row r="2539">
+      <c r="A2539" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2539" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G2539" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="H2539" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I2539" t="n">
+        <v>5921700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2539"/>
+  <dimension ref="A1:I2540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89245,6 +89245,41 @@
         <v>5921700</v>
       </c>
     </row>
+    <row r="2540">
+      <c r="A2540" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2540" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F2540" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="G2540" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H2540" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="I2540" t="n">
+        <v>3731500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2540"/>
+  <dimension ref="A1:I2541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89280,6 +89280,41 @@
         <v>3731500</v>
       </c>
     </row>
+    <row r="2541">
+      <c r="A2541" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2541" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F2541" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="G2541" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="H2541" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="I2541" t="n">
+        <v>1880700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2541"/>
+  <dimension ref="A1:I2542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89315,6 +89315,41 @@
         <v>1880700</v>
       </c>
     </row>
+    <row r="2542">
+      <c r="A2542" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2542" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="G2542" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="H2542" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="I2542" t="n">
+        <v>2267600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2542"/>
+  <dimension ref="A1:I2543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89350,6 +89350,41 @@
         <v>2267600</v>
       </c>
     </row>
+    <row r="2543">
+      <c r="A2543" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2543" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="G2543" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="H2543" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="I2543" t="n">
+        <v>2503600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2543"/>
+  <dimension ref="A1:I2544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89385,6 +89385,41 @@
         <v>2503600</v>
       </c>
     </row>
+    <row r="2544">
+      <c r="A2544" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2544" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F2544" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="G2544" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="H2544" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="I2544" t="n">
+        <v>2725900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2544"/>
+  <dimension ref="A1:I2545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89420,6 +89420,41 @@
         <v>2725900</v>
       </c>
     </row>
+    <row r="2545">
+      <c r="A2545" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2545" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="F2545" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G2545" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="H2545" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I2545" t="n">
+        <v>3800100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2545"/>
+  <dimension ref="A1:I2546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89455,6 +89455,41 @@
         <v>3800100</v>
       </c>
     </row>
+    <row r="2546">
+      <c r="A2546" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2546" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="F2546" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="G2546" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="H2546" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="I2546" t="n">
+        <v>6034700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2546"/>
+  <dimension ref="A1:I2547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89490,6 +89490,41 @@
         <v>6034700</v>
       </c>
     </row>
+    <row r="2547">
+      <c r="A2547" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2547" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F2547" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G2547" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="H2547" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="I2547" t="n">
+        <v>2689400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2547"/>
+  <dimension ref="A1:I2548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89525,6 +89525,41 @@
         <v>2689400</v>
       </c>
     </row>
+    <row r="2548">
+      <c r="A2548" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2548" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F2548" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="G2548" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="H2548" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I2548" t="n">
+        <v>3129600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2548"/>
+  <dimension ref="A1:I2549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89560,6 +89560,41 @@
         <v>3129600</v>
       </c>
     </row>
+    <row r="2549">
+      <c r="A2549" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2549" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F2549" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="G2549" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H2549" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="I2549" t="n">
+        <v>1852400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2549"/>
+  <dimension ref="A1:I2550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89595,6 +89595,41 @@
         <v>1852400</v>
       </c>
     </row>
+    <row r="2550">
+      <c r="A2550" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2550" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="F2550" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="G2550" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="H2550" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I2550" t="n">
+        <v>2263100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2550"/>
+  <dimension ref="A1:I2551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89630,6 +89630,41 @@
         <v>2263100</v>
       </c>
     </row>
+    <row r="2551">
+      <c r="A2551" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2551" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F2551" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="G2551" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="H2551" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="I2551" t="n">
+        <v>3637700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2551"/>
+  <dimension ref="A1:I2552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89665,6 +89665,41 @@
         <v>3637700</v>
       </c>
     </row>
+    <row r="2552">
+      <c r="A2552" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2552" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F2552" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="G2552" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H2552" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2552" t="n">
+        <v>1625600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2552"/>
+  <dimension ref="A1:I2553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89700,6 +89700,41 @@
         <v>1625600</v>
       </c>
     </row>
+    <row r="2553">
+      <c r="A2553" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2553" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="F2553" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="G2553" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H2553" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I2553" t="n">
+        <v>1616000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2553"/>
+  <dimension ref="A1:I2554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89735,6 +89735,41 @@
         <v>1616000</v>
       </c>
     </row>
+    <row r="2554">
+      <c r="A2554" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2554" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2554" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F2554" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="G2554" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="H2554" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="I2554" t="n">
+        <v>879700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2554"/>
+  <dimension ref="A1:I2555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89770,6 +89770,41 @@
         <v>879700</v>
       </c>
     </row>
+    <row r="2555">
+      <c r="A2555" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2555" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2555" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F2555" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G2555" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H2555" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="I2555" t="n">
+        <v>1752700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2555"/>
+  <dimension ref="A1:I2556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89805,6 +89805,41 @@
         <v>1752700</v>
       </c>
     </row>
+    <row r="2556">
+      <c r="A2556" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2556" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F2556" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="G2556" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="H2556" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="I2556" t="n">
+        <v>817700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2556"/>
+  <dimension ref="A1:I2557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89840,6 +89840,41 @@
         <v>817700</v>
       </c>
     </row>
+    <row r="2557">
+      <c r="A2557" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2557" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2557" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="F2557" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="G2557" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="H2557" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I2557" t="n">
+        <v>2718600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2557"/>
+  <dimension ref="A1:I2558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89875,6 +89875,41 @@
         <v>2718600</v>
       </c>
     </row>
+    <row r="2558">
+      <c r="A2558" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2558" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F2558" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G2558" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="H2558" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="I2558" t="n">
+        <v>4060200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2558"/>
+  <dimension ref="A1:I2559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89910,6 +89910,41 @@
         <v>4060200</v>
       </c>
     </row>
+    <row r="2559">
+      <c r="A2559" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2559" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="F2559" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G2559" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="H2559" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="I2559" t="n">
+        <v>1496700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2559"/>
+  <dimension ref="A1:I2561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89945,6 +89945,76 @@
         <v>1496700</v>
       </c>
     </row>
+    <row r="2560">
+      <c r="A2560" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2560" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="F2560" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="G2560" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H2560" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="I2560" t="n">
+        <v>1399700</v>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2561" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2561" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F2561" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G2561" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="H2561" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="I2561" t="n">
+        <v>1655100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2561"/>
+  <dimension ref="A1:I2562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90015,6 +90015,41 @@
         <v>1655100</v>
       </c>
     </row>
+    <row r="2562">
+      <c r="A2562" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2562" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="F2562" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="G2562" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H2562" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="I2562" t="n">
+        <v>1919700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2562"/>
+  <dimension ref="A1:I2565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90050,6 +90050,111 @@
         <v>1919700</v>
       </c>
     </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2563" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="F2563" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="G2563" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="H2563" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="I2563" t="n">
+        <v>2381300</v>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2564" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F2564" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="G2564" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="H2564" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="I2564" t="n">
+        <v>1988400</v>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2565" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="F2565" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="G2565" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="H2565" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I2565" t="n">
+        <v>964400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2565"/>
+  <dimension ref="A1:I2566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90155,6 +90155,41 @@
         <v>964400</v>
       </c>
     </row>
+    <row r="2566">
+      <c r="A2566" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2566" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F2566" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="G2566" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H2566" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="I2566" t="n">
+        <v>1626600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2566"/>
+  <dimension ref="A1:I2567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90190,6 +90190,41 @@
         <v>1626600</v>
       </c>
     </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2567" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F2567" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="G2567" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="H2567" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="I2567" t="n">
+        <v>1303500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6012.xlsx
+++ b/data/6012.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2567"/>
+  <dimension ref="A1:I2570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90225,6 +90225,111 @@
         <v>1303500</v>
       </c>
     </row>
+    <row r="2568">
+      <c r="A2568" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2568" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F2568" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G2568" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="H2568" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="I2568" t="n">
+        <v>3076300</v>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2569" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F2569" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="G2569" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="H2569" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="I2569" t="n">
+        <v>2037000</v>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>MAXIS</t>
+        </is>
+      </c>
+      <c r="E2570" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="F2570" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G2570" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="H2570" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="I2570" t="n">
+        <v>1020500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
